--- a/data-raw/各地区固定资本生产总额及指数.xlsx
+++ b/data-raw/各地区固定资本生产总额及指数.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\27_MyRPackages\CapitalStock\data-raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF4EED38-BCF8-43CF-BDB4-1896E14FC801}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C89CA293-688D-4CEF-B967-2AAA59104D84}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3585" yWindow="1440" windowWidth="22680" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1298" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1362" uniqueCount="98">
   <si>
     <t>省份</t>
   </si>
@@ -126,6 +126,262 @@
     <t>固定资本形成总额（亿元）</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>prv</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>alphabets</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>安徽</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>福建</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>甘肃</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>广东</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>广西</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>贵州</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>海南</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>河北</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>河南</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑龙江</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>湖北</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>湖南</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>吉林</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>江苏</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>江西</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>辽宁</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>内蒙古</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>宁夏</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>青海</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>山东</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>山西</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>陕西</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>上海</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>四川</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>天津</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>西藏</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>云南</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>浙江</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>重庆</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>anhui</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>beijing</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fujian</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>gansu</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>guangdong</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>guangxi</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>guizhou</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>hainan</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>hebei</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>henan</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>heilongjiang</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>hubei</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>hunan</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>jilin</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>jiangsu</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>jiangxi</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>liaoning</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>neimenggu</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ningxia</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>qinghai</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>shandong</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>shan1xi</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>shan3xi</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>shanghai</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sichuan</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tianjin</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>xizang</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>yunnan</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>zhejiang</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>chongqing</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>新疆</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>xinjiang</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -181,7 +437,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -219,6 +475,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -498,7 +757,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G1295"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -18050,14 +18309,274 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B32"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A4" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A5" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A6" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A7" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A8" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A9" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A10" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A11" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A12" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A13" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A14" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A15" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A16" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A17" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A18" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A19" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A20" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A21" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A22" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A23" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A24" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="B24" s="13" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A25" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="B25" s="13" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A26" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="B26" s="13" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A27" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="B27" s="13" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A28" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="B28" s="13" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A29" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="B29" s="13" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A30" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="B30" s="13" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A31" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="B31" s="13" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A32" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="B32" s="13" t="s">
+        <v>97</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/data-raw/各地区固定资本生产总额及指数.xlsx
+++ b/data-raw/各地区固定资本生产总额及指数.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\27_MyRPackages\CapitalStock\data-raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C89CA293-688D-4CEF-B967-2AAA59104D84}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{797ED415-0B3B-41D6-A9EE-365D9F3C8224}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3585" yWindow="1440" windowWidth="22680" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -339,14 +339,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>shan1xi</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>shan3xi</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>shanghai</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -380,6 +372,14 @@
   </si>
   <si>
     <t>xinjiang</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>shaanxi</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>shanxi</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -18312,7 +18312,7 @@
   <dimension ref="A1:B32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -18498,7 +18498,7 @@
         <v>57</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.15">
@@ -18506,7 +18506,7 @@
         <v>58</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.15">
@@ -18514,7 +18514,7 @@
         <v>59</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.15">
@@ -18522,7 +18522,7 @@
         <v>60</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.15">
@@ -18530,7 +18530,7 @@
         <v>61</v>
       </c>
       <c r="B27" s="13" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.15">
@@ -18538,7 +18538,7 @@
         <v>62</v>
       </c>
       <c r="B28" s="13" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.15">
@@ -18546,7 +18546,7 @@
         <v>63</v>
       </c>
       <c r="B29" s="13" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.15">
@@ -18554,7 +18554,7 @@
         <v>64</v>
       </c>
       <c r="B30" s="13" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.15">
@@ -18562,15 +18562,15 @@
         <v>65</v>
       </c>
       <c r="B31" s="13" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A32" s="13" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B32" s="13" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
